--- a/Documents/CombatSystem/EnemySheet.xlsx
+++ b/Documents/CombatSystem/EnemySheet.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GameEngineWork\UNREAL\PFEURA\Documents\CombatSystem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{457EBC45-DE52-4B52-AEAA-BA1B4D86345D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF2B54B7-531F-459D-B726-D5F609325261}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Enemies Overview" sheetId="4" r:id="rId1"/>
-    <sheet name="Combo Data" sheetId="2" r:id="rId2"/>
+    <sheet name="Enemies Detail" sheetId="5" r:id="rId2"/>
+    <sheet name="Combo Data" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="50">
   <si>
     <t>ENEMIES OVERVIEW</t>
   </si>
@@ -146,6 +147,53 @@
   <si>
     <t>Remove Shield
 Else 50% HP</t>
+  </si>
+  <si>
+    <t>Attack 1</t>
+  </si>
+  <si>
+    <t>Attack 2</t>
+  </si>
+  <si>
+    <t>Slap/Slap/Punch</t>
+  </si>
+  <si>
+    <t>Headbutt</t>
+  </si>
+  <si>
+    <t>Punch /
+Wind up / Big Punch</t>
+  </si>
+  <si>
+    <t>Poise</t>
+  </si>
+  <si>
+    <t>Priority</t>
+  </si>
+  <si>
+    <t>Block</t>
+  </si>
+  <si>
+    <t>Charge/ Shoot</t>
+  </si>
+  <si>
+    <t>Wait far distance, when ready charge shoot,
+Others don't wait, if player close for 1s do Attack 2</t>
+  </si>
+  <si>
+    <t>Wait mid distance, when ready go closer
+Others wait, Dorian System</t>
+  </si>
+  <si>
+    <t>While attacking, gain superarmor only broken by Heavy</t>
+  </si>
+  <si>
+    <t>While attacking, gain superarmor only broken by Heavy
+Wind up / Big Punch Unbreakable Superarmor</t>
+  </si>
+  <si>
+    <t>Block = less dmg, full knockback, no up launch
+After one hit, roll a chance to block all next hits</t>
   </si>
 </sst>
 </file>
@@ -224,9 +272,6 @@
   </cellStyleXfs>
   <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -235,17 +280,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -529,8 +579,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B87A371A-BF18-4B90-823C-BD33296C2600}">
   <dimension ref="A1:N18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J8" sqref="A7:K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -539,284 +589,274 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9" t="s">
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="10" t="s">
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="9" t="s">
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="I8" s="9"/>
-      <c r="J8" s="10" t="s">
+      <c r="I8" s="8"/>
+      <c r="J8" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="K8" s="10"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
+      <c r="K8" s="9"/>
     </row>
     <row r="10" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="8" t="s">
+      <c r="F10" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="8" t="s">
+      <c r="G10" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H10" s="8" t="s">
+      <c r="H10" s="5" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="2">
         <v>300</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="2">
         <f>ROUND(C11/'Combo Data'!$B$2,1)</f>
         <v>10</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="2">
         <f>ROUND(C11/'Combo Data'!$B$3,1)</f>
         <v>10</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="2">
         <f>ROUND(C11/'Combo Data'!$B$4,1)</f>
         <v>3.8</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G11" s="2">
         <f>ROUND(C11/'Combo Data'!$B$5,1)</f>
         <v>3</v>
       </c>
-      <c r="H11" s="5" t="s">
+      <c r="H11" s="4" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="2">
         <v>150</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="2">
         <f>ROUND(C12/'Combo Data'!$B$2,1)</f>
         <v>5</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="2">
         <f>ROUND(C12/'Combo Data'!$B$3,1)</f>
         <v>5</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="2">
         <f>ROUND(C12/'Combo Data'!$B$4,1)</f>
         <v>1.9</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G12" s="2">
         <f>ROUND(C12/'Combo Data'!$B$5,1)</f>
         <v>1.5</v>
       </c>
-      <c r="H12" s="5" t="s">
+      <c r="H12" s="4" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="2">
         <v>400</v>
       </c>
-      <c r="D13" s="5" t="str">
+      <c r="D13" s="4" t="str">
         <f>_xlfn.CONCAT(ROUND(C13/'Combo Data'!$B$2,1)," (Unshielded)")</f>
         <v>13,3 (Unshielded)</v>
       </c>
-      <c r="E13" s="5" t="str">
+      <c r="E13" s="4" t="str">
         <f>_xlfn.CONCAT(ROUND(C13/'Combo Data'!$B$3,1)," (Unshielded)")</f>
         <v>13,3 (Unshielded)</v>
       </c>
-      <c r="F13" s="5" t="str">
+      <c r="F13" s="4" t="str">
         <f>_xlfn.CONCAT(ROUND(C13/'Combo Data'!$B$4,1)," (Unshielded)")</f>
         <v>5 (Unshielded)</v>
       </c>
-      <c r="G13" s="5" t="str">
+      <c r="G13" s="4" t="str">
         <f>_xlfn.CONCAT(ROUND(C13/'Combo Data'!$B$5,1)," (Unshielded)")</f>
         <v>4 (Unshielded)</v>
       </c>
-      <c r="H13" s="11" t="s">
+      <c r="H13" s="6" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="2">
         <v>750</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="2">
         <f>ROUND(C14/'Combo Data'!$B$2,1)</f>
         <v>25</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="2">
         <f>ROUND(C14/'Combo Data'!$B$3,1)</f>
         <v>25</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="2">
         <f>ROUND(C14/'Combo Data'!$B$4,1)</f>
         <v>9.4</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="2">
         <f>ROUND(C14/'Combo Data'!$B$5,1)</f>
         <v>7.5</v>
       </c>
-      <c r="H14" s="6">
+      <c r="H14" s="4">
         <v>100</v>
       </c>
     </row>
     <row r="18" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K18" s="2"/>
+      <c r="K18" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -834,6 +874,267 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F298B34-721C-4952-A7C5-4422D0FEB55E}">
+  <dimension ref="A1:N30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="4" width="20.7109375" customWidth="1"/>
+    <col min="5" max="7" width="50.7109375" customWidth="1"/>
+    <col min="8" max="14" width="20.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+    </row>
+    <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+    </row>
+    <row r="3" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+    </row>
+    <row r="4" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+    </row>
+    <row r="5" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B8" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="I8" s="8"/>
+      <c r="J8" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="K8" s="9"/>
+    </row>
+    <row r="10" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+    </row>
+    <row r="14" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+    </row>
+    <row r="15" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A1:G5"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDFAE766-7472-429C-A830-950DA6D1FFB9}">
   <dimension ref="A1:C5"/>
   <sheetViews>
@@ -845,55 +1146,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="4"/>
-      <c r="B1" s="3" t="s">
+      <c r="A1" s="3"/>
+      <c r="B1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="2">
         <v>30</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="2">
         <v>30</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <v>80</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="2">
         <v>100</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>27</v>
       </c>
     </row>

--- a/Documents/CombatSystem/EnemySheet.xlsx
+++ b/Documents/CombatSystem/EnemySheet.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GameEngineWork\UNREAL\PFEURA\Documents\CombatSystem\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dorian MAGNO\Desktop\PFEURA\Documents\CombatSystem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF2B54B7-531F-459D-B726-D5F609325261}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{450D600D-D0E1-4D78-BCC1-E2A83C57DB63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -284,6 +284,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -291,12 +297,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -583,131 +583,131 @@
       <selection activeCell="J8" sqref="A7:K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="14" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
+      <c r="A3" s="9"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
+      <c r="A5" s="9"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8" t="s">
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="9" t="s">
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="8" t="s">
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="I8" s="8"/>
-      <c r="J8" s="9" t="s">
+      <c r="I8" s="10"/>
+      <c r="J8" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="K8" s="9"/>
+      <c r="K8" s="11"/>
     </row>
     <row r="10" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
@@ -878,10 +878,10 @@
   <dimension ref="A1:N30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="4" width="20.7109375" customWidth="1"/>
     <col min="5" max="7" width="50.7109375" customWidth="1"/>
@@ -889,125 +889,125 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
     </row>
     <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11"/>
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
     </row>
     <row r="3" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
+      <c r="A3" s="9"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
     </row>
     <row r="4" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="11"/>
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
     </row>
     <row r="5" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="11"/>
+      <c r="A5" s="9"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8" t="s">
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="9" t="s">
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="8" t="s">
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="I8" s="8"/>
-      <c r="J8" s="9" t="s">
+      <c r="I8" s="10"/>
+      <c r="J8" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="K8" s="9"/>
+      <c r="K8" s="11"/>
     </row>
     <row r="10" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
@@ -1042,16 +1042,16 @@
       <c r="C11" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="E11" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="F11" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="G11" s="10" t="s">
+      <c r="G11" s="7" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1071,10 +1071,10 @@
       <c r="E12" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F12" s="10" t="s">
+      <c r="F12" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="G12" s="10" t="s">
+      <c r="G12" s="7" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1140,7 +1140,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="18.85546875" bestFit="1" customWidth="1"/>
   </cols>
